--- a/artfynd/A 34322-2022.xlsx
+++ b/artfynd/A 34322-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5443,6 +5443,120 @@
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111908910</v>
+      </c>
+      <c r="B42" t="n">
+        <v>56969</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Godkänd baserat på observatörens uppgifter</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>102120</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Rödstrupig piplärka</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Anthus cervinus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Pallas, 1811)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>rastande</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Lönnfallet, Grängesberg, Dlr</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>485046</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6653165</v>
+      </c>
+      <c r="S42" t="n">
+        <v>37</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2008-08-12</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2008-08-12</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Urban Grenmyr</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Sten-Erik Bohlin</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34322-2022.xlsx
+++ b/artfynd/A 34322-2022.xlsx
@@ -5445,10 +5445,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111908910</v>
+        <v>111909151</v>
       </c>
       <c r="B42" t="n">
-        <v>56969</v>
+        <v>57001</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5480,14 +5480,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>rastande</t>
+          <t>sträckande S</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -5527,12 +5527,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2008-08-12</t>
+          <t>2006-09-23</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2008-08-12</t>
+          <t>2006-09-23</t>
         </is>
       </c>
       <c r="AD42" t="b">

--- a/artfynd/A 34322-2022.xlsx
+++ b/artfynd/A 34322-2022.xlsx
@@ -5445,7 +5445,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111909151</v>
+        <v>111909044</v>
       </c>
       <c r="B42" t="n">
         <v>57001</v>
@@ -5480,16 +5480,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>sträckande S</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5527,12 +5523,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2006-09-23</t>
+          <t>2007-09-24</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2006-09-23</t>
+          <t>2007-09-24</t>
         </is>
       </c>
       <c r="AD42" t="b">
